--- a/company/y_survey/data/template/单位负责人问卷_20190914_主管财务的领导填写.xlsx
+++ b/company/y_survey/data/template/单位负责人问卷_20190914_主管财务的领导填写.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse-workspace\company\y_survey\data\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E719AB51-C2FF-4A75-89CA-9266740B3166}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6460066-0587-4B43-8072-9EC8D6ABE9B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10665" yWindow="1695" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="调查问卷__单位负责人" sheetId="2" r:id="rId1"/>
@@ -218,7 +218,6 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -230,6 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -255,12 +255,116 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp100.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp101.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp102.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp103.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp104.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp109.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp112.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp113.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp114.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp115.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp116.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp117.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp118.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp119.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp120.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp121.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp122.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp123.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp124.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp125.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,11 +519,99 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp67.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp68.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp69.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
 </file>
 
@@ -427,12 +619,132 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp71.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp72.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp73.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp74.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp75.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp76.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp77.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp78.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp79.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp80.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp86.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp87.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp88.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp89.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp90.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp91.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp92.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp93.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp94.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp95.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp96.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp97.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp98.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp99.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2721,8 +3033,8 @@
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>666750</xdr:colOff>
-          <xdr:row>76</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:row>83</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4335,6 +4647,6584 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2177" name="Group Box 129" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2177"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1724B535-9FFB-45DF-9162-12B14A9D1379}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>D.期望事业提升</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2178" name="Option Button 130" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2178"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{022B009C-6DC2-4D7D-98A6-57890D8F0BF9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>542925</xdr:colOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2179" name="Option Button 131" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2179"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7ABBEE7-B5D5-425D-BA79-6D01C73C49F2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2180" name="Option Button 132" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2180"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADDA163E-946C-4675-BEFC-8C7F67397E44}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2181" name="Option Button 133" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2181"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D83D248-43CC-4864-BECD-50F56A53F643}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2182" name="Option Button 134" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2182"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F5EB278-EE05-42B0-A363-25641778B410}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2183" name="Group Box 135" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2183"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F9C46B4-7FEE-4D51-9953-AE339DB48069}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>E.对上下级有影响力</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2184" name="Option Button 136" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2184"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8666C040-FFD7-459F-8574-2466B3E3454B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>542925</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2185" name="Option Button 137" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2185"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{243B87D2-D2A1-490A-8677-25FC2E8277EB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2186" name="Option Button 138" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2186"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{592A80DF-97DE-40E9-AC30-17B1229F1CF1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2187" name="Option Button 139" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2187"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77CC4C0-8500-4B3D-BDE6-173331E92EA2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2188" name="Option Button 140" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2188"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D947AD3-BEBA-4CC3-9E02-DFBCEA4C7E3A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2189" name="Group Box 141" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2189"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA23611-2480-4358-B4E3-D7C0EFDB3DB8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>F.积极主动</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2190" name="Option Button 142" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2190"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87CC5412-0E34-4C30-A4C5-0D09521F9F33}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>542925</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2191" name="Option Button 143" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2191"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA084934-3617-4E17-9B5E-F4F8203CC80D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2192" name="Option Button 144" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2192"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6B6AEB-E6C5-488D-82F7-9CF72BCDB799}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2193" name="Option Button 145" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2193"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B349D6E4-80E8-41DE-9DCC-12C64E2BA038}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2194" name="Option Button 146" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2194"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD463E8-6903-4E3E-81CD-0CDD301B180A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2195" name="Group Box 147" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2195"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3E4B21-F5A8-4C14-81B6-C580ED25B416}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>G.积极尝试具有不确定性的事物</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2196" name="Option Button 148" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2196"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5D33329-CA59-4F32-9F17-5AC86110A691}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>542925</xdr:colOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2197" name="Option Button 149" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2197"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEB1584B-E34F-4D33-8A1C-F0E1AFC8789E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2198" name="Option Button 150" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2198"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2D84DA-79DA-42BD-BA4F-C1A425B3DBA5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2199" name="Option Button 151" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2199"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06EF9F51-0CAE-4B2F-AF88-A1E35486BEC4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2200" name="Option Button 152" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2200"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2DBD255-7669-4106-95A4-C700C7396EF9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>71</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2201" name="Group Box 153" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2201"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DCCAB29-3D86-4EA2-B3F9-2485A43F9AF9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>H.沉着稳重</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>71</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2202" name="Option Button 154" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2202"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ED743FA-EA62-4160-95BB-D89FFFAD0094}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>542925</xdr:colOff>
+          <xdr:row>71</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2203" name="Option Button 155" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2203"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2877B30A-E82E-41CC-B82E-B41F8E554385}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
+          <xdr:row>71</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2204" name="Option Button 156" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2204"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E696BDD0-E3E7-4D03-8DE9-AF1E39D1ECE0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>71</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2205" name="Option Button 157" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2205"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D07FA61-79F3-4A0A-B32F-DF96F79B8FD4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>71</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2206" name="Option Button 158" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2206"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD7BF55B-3851-48CB-8D55-9989108E4D66}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>71</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>73</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2207" name="Group Box 159" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2207"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DB7B1F5-6F57-4B64-84BE-966F1EB7186F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>I.乐观</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>71</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>73</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2208" name="Option Button 160" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2208"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20838930-125B-4436-A56D-F843AC1A8431}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>71</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>542925</xdr:colOff>
+          <xdr:row>73</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2209" name="Option Button 161" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2209"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1757920D-0CB9-45CF-8163-FACC83BA2872}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>71</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
+          <xdr:row>73</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2210" name="Option Button 162" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2210"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C9C8874-88B9-4F72-8211-BC517D5B29C4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>71</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>73</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2211" name="Option Button 163" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2211"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53608D95-F42C-4009-ADCF-AD7F5704F442}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>71</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>73</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2212" name="Option Button 164" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2212"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80FEECFF-AFD7-4239-96D7-98433421E754}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>73</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>74</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2213" name="Group Box 165" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2213"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED1E80CF-6E8A-4613-9661-2E16F14C7D25}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>J.能承受很大压力</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>73</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>74</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2214" name="Option Button 166" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2214"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1945CFA9-5770-48D9-A96D-033930D0FC2E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>73</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>542925</xdr:colOff>
+          <xdr:row>74</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2215" name="Option Button 167" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2215"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983DEADE-50F8-4FDB-A2DE-261CC9DE6F7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>73</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
+          <xdr:row>74</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2216" name="Option Button 168" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2216"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76A2093-E451-4965-B045-988F05DB7A5F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>73</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>74</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2217" name="Option Button 169" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2217"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C28079A0-067B-4EB7-BFCE-1E3AF9EC2024}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>73</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>74</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2218" name="Option Button 170" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2218"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C096484-A8BE-4529-AADE-BE93B2E88488}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>74</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>75</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2219" name="Group Box 171" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2219"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE0B4AC8-FAF6-4FE9-A0CB-CEFC28D7FF1E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>K.独立</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>74</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>75</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2220" name="Option Button 172" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2220"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{323C7183-F8F2-4BE9-B71D-9954C6ECA5FD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>74</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>542925</xdr:colOff>
+          <xdr:row>75</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2221" name="Option Button 173" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2221"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED518D13-70F6-449D-B10E-6B0FC446CBE1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>74</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
+          <xdr:row>75</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2222" name="Option Button 174" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2222"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{420B1372-DC6F-4AF4-8FC5-E23B9593C286}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>74</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>75</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2223" name="Option Button 175" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2223"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28E6AEA3-DF2E-4E40-9075-FA880AB34B82}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>74</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>75</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2224" name="Option Button 176" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2224"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA496764-6E98-4DB7-A9E1-EA78868FF9FC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>75</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>77</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2225" name="Group Box 177" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2225"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5106B306-346B-42CC-802F-32478C124BF0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>L.视野长远</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>75</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>77</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2226" name="Option Button 178" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2226"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{807D6029-48B7-46FA-9CC8-BF035369056C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>75</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>542925</xdr:colOff>
+          <xdr:row>77</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2227" name="Option Button 179" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2227"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D67A47-11B9-4E08-83D5-4F4E46555259}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>75</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
+          <xdr:row>77</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2228" name="Option Button 180" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2228"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBBDCA0C-BB97-4AC5-8F8F-82E4560DD6A3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>75</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>77</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2229" name="Option Button 181" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2229"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B0EB812-C22E-4028-ABA0-CFBD331062EF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>75</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>77</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2230" name="Option Button 182" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2230"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC9EB780-C2AE-4B4E-BC3F-125273AA1521}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>77</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>78</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2231" name="Group Box 183" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2231"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA2FFA4-306E-4694-83EC-AA2A3206E2F1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>M.良好沟通</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>77</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>78</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2232" name="Option Button 184" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2232"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9CBBAD9-E4DE-400C-AA7B-6D92A6A9AE5D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>77</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>542925</xdr:colOff>
+          <xdr:row>78</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2233" name="Option Button 185" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2233"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B553084C-EB87-49A2-B22F-50C99BAF714E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>77</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
+          <xdr:row>78</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2234" name="Option Button 186" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2234"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D1D230E-8F85-4B33-9574-0FAC50DF30C0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>77</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>78</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2235" name="Option Button 187" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2235"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8AB1D36-AE88-467D-9C79-7068F93E3C2E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>77</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>78</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2236" name="Option Button 188" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2236"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD3E9F2F-0BEB-4DE1-A8C3-7AF1CEB49E69}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>78</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>79</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2237" name="Group Box 189" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2237"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49860ED8-08E9-4CAC-BD79-FD9553CA14A8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>N.积极应变</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>78</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>80</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2238" name="Option Button 190" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2238"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD9513C5-AD1B-47A0-A296-1AF0F5A4158F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>78</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>542925</xdr:colOff>
+          <xdr:row>80</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2239" name="Option Button 191" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2239"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FED31877-0532-4906-9155-1EBD0E13F001}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>78</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
+          <xdr:row>80</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2240" name="Option Button 192" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2240"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C8B2F5-3B1F-4E89-9F01-A5A36E7EE334}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>78</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>80</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2241" name="Option Button 193" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2241"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{283AA02B-BDA2-405E-9EA5-083E983B6860}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>78</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>80</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2242" name="Option Button 194" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2242"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BA0598D-98C3-4F80-97B1-23EE32F876AD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>79</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2243" name="Group Box 195" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2243"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773AA303-B23A-408C-AA77-DA8A747CADC6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>O.有效解决争议</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>79</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2244" name="Option Button 196" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2244"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0411413C-D65A-48C0-AEA6-3B1B4105ACA7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>79</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>542925</xdr:colOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2245" name="Option Button 197" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2245"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D05175B4-2045-4590-9F34-39C97325CF28}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>79</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2246" name="Option Button 198" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2246"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{674E3561-CE0E-494F-A17E-C5FB0ECFD608}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>79</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2247" name="Option Button 199" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2247"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E6C194-621F-420A-9D2F-51B8CDFDE129}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>79</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2248" name="Option Button 200" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2248"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7DA5735-350C-4743-8E39-94A680C229CC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>82</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2249" name="Group Box 201" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2249"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85BD5D11-B829-4555-BF5C-7B3A64CA1467}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>P.积极建立有益关系</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>82</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2250" name="Option Button 202" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2250"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79CAAC3D-D1EA-4298-B814-5659594674F9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>542925</xdr:colOff>
+          <xdr:row>82</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2251" name="Option Button 203" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2251"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C25460-4545-44FF-975D-25600E111F77}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
+          <xdr:row>82</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2252" name="Option Button 204" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2252"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F7F934F-8CCB-42BE-BADE-99187603F774}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>82</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2253" name="Option Button 205" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2253"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F58039-2972-49B9-956A-786AB4005CD5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI"/>
+                  <a:ea typeface="Microsoft YaHei UI"/>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>82</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2254" name="Option Button 206" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2254"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E903390B-340C-4F65-8880-A61E9BDFC375}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4666,41 +11556,41 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
@@ -4712,15 +11602,15 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="39" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="40" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5354,8 +12244,8 @@
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>666750</xdr:colOff>
-                    <xdr:row>76</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
+                    <xdr:row>83</xdr:row>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5780,6 +12670,1722 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2177" r:id="rId51" name="Group Box 129">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:row>66</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2178" r:id="rId52" name="Option Button 130">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:row>66</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2179" r:id="rId53" name="Option Button 131">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>238125</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>542925</xdr:colOff>
+                    <xdr:row>66</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2180" r:id="rId54" name="Option Button 132">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>485775</xdr:colOff>
+                    <xdr:row>66</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2181" r:id="rId55" name="Option Button 133">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>66</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2182" r:id="rId56" name="Option Button 134">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>219075</xdr:colOff>
+                    <xdr:row>64</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>66</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2183" r:id="rId57" name="Group Box 135">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>66</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:row>67</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2184" r:id="rId58" name="Option Button 136">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>66</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:row>67</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2185" r:id="rId59" name="Option Button 137">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>238125</xdr:colOff>
+                    <xdr:row>66</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>542925</xdr:colOff>
+                    <xdr:row>67</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2186" r:id="rId60" name="Option Button 138">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:row>66</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>485775</xdr:colOff>
+                    <xdr:row>67</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2187" r:id="rId61" name="Option Button 139">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:row>66</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>67</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2188" r:id="rId62" name="Option Button 140">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>219075</xdr:colOff>
+                    <xdr:row>66</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>67</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2189" r:id="rId63" name="Group Box 141">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>67</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:row>69</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2190" r:id="rId64" name="Option Button 142">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>67</xdr:row>
+                    <xdr:rowOff>104775</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:row>69</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2191" r:id="rId65" name="Option Button 143">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>238125</xdr:colOff>
+                    <xdr:row>67</xdr:row>
+                    <xdr:rowOff>104775</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>542925</xdr:colOff>
+                    <xdr:row>69</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2192" r:id="rId66" name="Option Button 144">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:row>67</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>485775</xdr:colOff>
+                    <xdr:row>69</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2193" r:id="rId67" name="Option Button 145">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:row>67</xdr:row>
+                    <xdr:rowOff>104775</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>69</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2194" r:id="rId68" name="Option Button 146">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>219075</xdr:colOff>
+                    <xdr:row>67</xdr:row>
+                    <xdr:rowOff>104775</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>69</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2195" r:id="rId69" name="Group Box 147">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>69</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:row>70</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2196" r:id="rId70" name="Option Button 148">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>68</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:row>70</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2197" r:id="rId71" name="Option Button 149">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>238125</xdr:colOff>
+                    <xdr:row>68</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>542925</xdr:colOff>
+                    <xdr:row>70</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2198" r:id="rId72" name="Option Button 150">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:row>68</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>485775</xdr:colOff>
+                    <xdr:row>70</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2199" r:id="rId73" name="Option Button 151">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:row>68</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>70</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2200" r:id="rId74" name="Option Button 152">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>219075</xdr:colOff>
+                    <xdr:row>68</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>70</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2201" r:id="rId75" name="Group Box 153">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>70</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:row>71</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2202" r:id="rId76" name="Option Button 154">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>70</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:row>71</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2203" r:id="rId77" name="Option Button 155">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>238125</xdr:colOff>
+                    <xdr:row>70</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>542925</xdr:colOff>
+                    <xdr:row>71</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2204" r:id="rId78" name="Option Button 156">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:row>70</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>485775</xdr:colOff>
+                    <xdr:row>71</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2205" r:id="rId79" name="Option Button 157">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:row>70</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>71</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2206" r:id="rId80" name="Option Button 158">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>219075</xdr:colOff>
+                    <xdr:row>70</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>71</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2207" r:id="rId81" name="Group Box 159">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>71</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:row>73</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2208" r:id="rId82" name="Option Button 160">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>71</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:row>73</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2209" r:id="rId83" name="Option Button 161">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>238125</xdr:colOff>
+                    <xdr:row>71</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>542925</xdr:colOff>
+                    <xdr:row>73</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2210" r:id="rId84" name="Option Button 162">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:row>71</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>485775</xdr:colOff>
+                    <xdr:row>73</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2211" r:id="rId85" name="Option Button 163">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:row>71</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>73</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2212" r:id="rId86" name="Option Button 164">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>219075</xdr:colOff>
+                    <xdr:row>71</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>73</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2213" r:id="rId87" name="Group Box 165">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>73</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:row>74</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2214" r:id="rId88" name="Option Button 166">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>73</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:row>74</xdr:row>
+                    <xdr:rowOff>104775</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2215" r:id="rId89" name="Option Button 167">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>238125</xdr:colOff>
+                    <xdr:row>73</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>542925</xdr:colOff>
+                    <xdr:row>74</xdr:row>
+                    <xdr:rowOff>104775</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2216" r:id="rId90" name="Option Button 168">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:row>73</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>485775</xdr:colOff>
+                    <xdr:row>74</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2217" r:id="rId91" name="Option Button 169">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:row>73</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>74</xdr:row>
+                    <xdr:rowOff>104775</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2218" r:id="rId92" name="Option Button 170">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>219075</xdr:colOff>
+                    <xdr:row>73</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>74</xdr:row>
+                    <xdr:rowOff>104775</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2219" r:id="rId93" name="Group Box 171">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>74</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:row>75</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2220" r:id="rId94" name="Option Button 172">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>74</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:row>75</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2221" r:id="rId95" name="Option Button 173">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>238125</xdr:colOff>
+                    <xdr:row>74</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>542925</xdr:colOff>
+                    <xdr:row>75</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2222" r:id="rId96" name="Option Button 174">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:row>74</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>485775</xdr:colOff>
+                    <xdr:row>75</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2223" r:id="rId97" name="Option Button 175">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:row>74</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>75</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2224" r:id="rId98" name="Option Button 176">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>219075</xdr:colOff>
+                    <xdr:row>74</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>75</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2225" r:id="rId99" name="Group Box 177">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>75</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:row>77</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2226" r:id="rId100" name="Option Button 178">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>75</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:row>77</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2227" r:id="rId101" name="Option Button 179">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>238125</xdr:colOff>
+                    <xdr:row>75</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>542925</xdr:colOff>
+                    <xdr:row>77</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2228" r:id="rId102" name="Option Button 180">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:row>75</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>485775</xdr:colOff>
+                    <xdr:row>77</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2229" r:id="rId103" name="Option Button 181">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:row>75</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>77</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2230" r:id="rId104" name="Option Button 182">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>219075</xdr:colOff>
+                    <xdr:row>75</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>77</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2231" r:id="rId105" name="Group Box 183">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>77</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:row>78</xdr:row>
+                    <xdr:rowOff>104775</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2232" r:id="rId106" name="Option Button 184">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>77</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:row>78</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2233" r:id="rId107" name="Option Button 185">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>238125</xdr:colOff>
+                    <xdr:row>77</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>542925</xdr:colOff>
+                    <xdr:row>78</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2234" r:id="rId108" name="Option Button 186">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:row>77</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>485775</xdr:colOff>
+                    <xdr:row>78</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2235" r:id="rId109" name="Option Button 187">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:row>77</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>78</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2236" r:id="rId110" name="Option Button 188">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>219075</xdr:colOff>
+                    <xdr:row>77</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>78</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2237" r:id="rId111" name="Group Box 189">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>78</xdr:row>
+                    <xdr:rowOff>104775</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:row>79</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2238" r:id="rId112" name="Option Button 190">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>78</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:row>80</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2239" r:id="rId113" name="Option Button 191">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>238125</xdr:colOff>
+                    <xdr:row>78</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>542925</xdr:colOff>
+                    <xdr:row>80</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2240" r:id="rId114" name="Option Button 192">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:row>78</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>485775</xdr:colOff>
+                    <xdr:row>80</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2241" r:id="rId115" name="Option Button 193">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:row>78</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>80</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2242" r:id="rId116" name="Option Button 194">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>219075</xdr:colOff>
+                    <xdr:row>78</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>80</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2243" r:id="rId117" name="Group Box 195">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>79</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:row>81</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2244" r:id="rId118" name="Option Button 196">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>79</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:row>81</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2245" r:id="rId119" name="Option Button 197">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>238125</xdr:colOff>
+                    <xdr:row>79</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>542925</xdr:colOff>
+                    <xdr:row>81</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2246" r:id="rId120" name="Option Button 198">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:row>79</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>485775</xdr:colOff>
+                    <xdr:row>81</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2247" r:id="rId121" name="Option Button 199">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:row>79</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>81</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2248" r:id="rId122" name="Option Button 200">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>219075</xdr:colOff>
+                    <xdr:row>79</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>81</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2249" r:id="rId123" name="Group Box 201">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>81</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:row>82</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2250" r:id="rId124" name="Option Button 202">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>81</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:row>82</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2251" r:id="rId125" name="Option Button 203">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>238125</xdr:colOff>
+                    <xdr:row>81</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>542925</xdr:colOff>
+                    <xdr:row>82</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2252" r:id="rId126" name="Option Button 204">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:row>81</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>485775</xdr:colOff>
+                    <xdr:row>82</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2253" r:id="rId127" name="Option Button 205">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:row>81</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>82</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2254" r:id="rId128" name="Option Button 206">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>219075</xdr:colOff>
+                    <xdr:row>81</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:row>82</xdr:row>
+                    <xdr:rowOff>142875</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
